--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2692.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2692.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.163173614383668</v>
+        <v>0.9044681191444397</v>
       </c>
       <c r="B1">
-        <v>2.418785603757481</v>
+        <v>1.564083099365234</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.351256370544434</v>
       </c>
       <c r="D1">
-        <v>2.334831553921002</v>
+        <v>2.271829128265381</v>
       </c>
       <c r="E1">
-        <v>1.215541695047881</v>
+        <v>1.483600854873657</v>
       </c>
     </row>
   </sheetData>
